--- a/data_analyzed/miles_per_week/miles_per_week_games.xlsx
+++ b/data_analyzed/miles_per_week/miles_per_week_games.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:AF31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,77 +441,157 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Alexis Rainey</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Balduzzi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Burns</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Curley</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Daud</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>DeLeo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Diedrichsen</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Doyle</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Espona</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Ferriolo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Forman</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Hackman</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Hartsch</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Holzman</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Hughes</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Johnson</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>LaCroix</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Larripa</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>McCann</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>McFadden</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Medico</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Myers</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Pla</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Reilly</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Ricci</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Rodrigo</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Smyth</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Streib</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Tollaksen</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Wasyliw</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Yanovich</t>
         </is>
       </c>
     </row>
@@ -520,35 +600,77 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
+        <v>13.8284</v>
+      </c>
+      <c r="C2" t="n">
         <v>18.0118</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>4.8941</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>11.1458</v>
-      </c>
+      <c r="E2" t="n">
+        <v>3.5771</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>16.164</v>
+      </c>
       <c r="J2" t="n">
+        <v>15.3647</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11.1458</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>13.4273</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>19.0369</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6.106</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>16.2078</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
         <v>10.2333</v>
       </c>
-      <c r="K2" t="n">
+      <c r="U2" t="n">
+        <v>10.6383</v>
+      </c>
+      <c r="V2" t="n">
         <v>5.1432</v>
       </c>
-      <c r="L2" t="n">
+      <c r="W2" t="n">
+        <v>12.2545</v>
+      </c>
+      <c r="X2" t="n">
         <v>17.7109</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="Y2" t="n">
+        <v>5.497</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
         <v>14.3754</v>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>19.4272</v>
+      </c>
+      <c r="AE2" t="n">
         <v>10.821</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>10.5051</v>
       </c>
     </row>
     <row r="3">
@@ -556,35 +678,77 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
+        <v>12.6116</v>
+      </c>
+      <c r="C3" t="n">
         <v>22.4016</v>
       </c>
-      <c r="C3" t="n">
-        <v>6.154500000000001</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>4.5335</v>
-      </c>
+      <c r="D3" t="n">
+        <v>6.1545</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.9494</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>25.9733</v>
+      </c>
       <c r="J3" t="n">
+        <v>16.7447</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.5335</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>19.8929</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>11.5607</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6.4134</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>22.5321</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
         <v>16.7118</v>
       </c>
-      <c r="K3" t="n">
-        <v>6.228400000000001</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="U3" t="n">
+        <v>18.9678</v>
+      </c>
+      <c r="V3" t="n">
+        <v>6.2284</v>
+      </c>
+      <c r="W3" t="n">
+        <v>13.803</v>
+      </c>
+      <c r="X3" t="n">
         <v>21.8192</v>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="Y3" t="n">
+        <v>7.7359</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
         <v>20.0781</v>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="n">
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>25.3899</v>
+      </c>
+      <c r="AE3" t="n">
         <v>10.6685</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>14.2035</v>
       </c>
     </row>
     <row r="4">
@@ -592,175 +756,387 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
+        <v>8.425699999999999</v>
+      </c>
+      <c r="C4" t="n">
         <v>23.3902</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>6.8014</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>13.0923</v>
-      </c>
+      <c r="E4" t="n">
+        <v>8.512499999999999</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>23.5077</v>
+      </c>
       <c r="J4" t="n">
+        <v>18.6329</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13.0923</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>17.8564</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>22.2951</v>
+      </c>
+      <c r="P4" t="n">
+        <v>7.3673</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>23.3239</v>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
         <v>21.9133</v>
       </c>
-      <c r="K4" t="n">
+      <c r="U4" t="n">
+        <v>16.7235</v>
+      </c>
+      <c r="V4" t="n">
         <v>23.5631</v>
       </c>
-      <c r="L4" t="n">
+      <c r="W4" t="n">
+        <v>8.012499999999999</v>
+      </c>
+      <c r="X4" t="n">
         <v>22.1318</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="Y4" t="n">
+        <v>6.5984</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
         <v>15.1925</v>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="n">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>2.2307</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>25.3471</v>
+      </c>
+      <c r="AE4" t="n">
         <v>18.7802</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="n">
+        <v>6.4304</v>
+      </c>
+      <c r="C5" t="n">
         <v>27.5134</v>
       </c>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>8.007300000000001</v>
-      </c>
+      <c r="E5" t="n">
+        <v>10.4853</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>26.6789</v>
+      </c>
       <c r="J5" t="n">
+        <v>15.9516</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8.007300000000001</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>6.860399999999999</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>17.1964</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9.132400000000001</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>28.7134</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="n">
         <v>27.7983</v>
       </c>
-      <c r="K5" t="n">
+      <c r="U5" t="n">
+        <v>19.4768</v>
+      </c>
+      <c r="V5" t="n">
         <v>19.4315</v>
       </c>
-      <c r="L5" t="n">
+      <c r="W5" t="n">
+        <v>9.250400000000001</v>
+      </c>
+      <c r="X5" t="n">
         <v>24.883</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="Y5" t="n">
+        <v>8.3117</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
         <v>26.7666</v>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="n">
+        <v>4.2159</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>30.9271</v>
+      </c>
+      <c r="AE5" t="n">
         <v>18.4549</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="n">
+        <v>16.9343</v>
+      </c>
+      <c r="C6" t="n">
         <v>26.1636</v>
       </c>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>6.9683</v>
-      </c>
+      <c r="E6" t="n">
+        <v>3.968900000000001</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>21.757</v>
+      </c>
       <c r="J6" t="n">
+        <v>15.7679</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.9683</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>7.1172</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>15.3362</v>
+      </c>
+      <c r="P6" t="n">
+        <v>7.7568</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>24.0075</v>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="n">
         <v>28.6129</v>
       </c>
-      <c r="K6" t="n">
+      <c r="U6" t="n">
+        <v>17.9452</v>
+      </c>
+      <c r="V6" t="n">
         <v>17.1638</v>
       </c>
-      <c r="L6" t="n">
+      <c r="W6" t="n">
+        <v>18.1877</v>
+      </c>
+      <c r="X6" t="n">
         <v>22.7493</v>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="Y6" t="n">
+        <v>6.852</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
         <v>24.1075</v>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="n">
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>4.5146</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>23.2919</v>
+      </c>
+      <c r="AE6" t="n">
         <v>7.5769</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="n">
+        <v>21.4933</v>
+      </c>
+      <c r="C7" t="n">
         <v>26.1587</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>8.9018</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>7.9116</v>
-      </c>
+      <c r="E7" t="n">
+        <v>9.525700000000001</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>21.7914</v>
+      </c>
       <c r="J7" t="n">
+        <v>17.6302</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.9116</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>12.948</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>23.5469</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8.452299999999999</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>25.4702</v>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>28.4208</v>
       </c>
-      <c r="K7" t="n">
+      <c r="U7" t="n">
+        <v>15.7438</v>
+      </c>
+      <c r="V7" t="n">
         <v>18.3021</v>
       </c>
-      <c r="L7" t="n">
+      <c r="W7" t="n">
+        <v>17.2522</v>
+      </c>
+      <c r="X7" t="n">
         <v>23.039</v>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="Y7" t="n">
+        <v>9.918699999999999</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="n">
         <v>22.8448</v>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>4.7395</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>26.8095</v>
+      </c>
+      <c r="AE7" t="n">
         <v>18.7144</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="n">
+        <v>27.5811</v>
+      </c>
+      <c r="C8" t="n">
         <v>24.7922</v>
       </c>
-      <c r="C8" t="n">
-        <v>8.780099999999999</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>8.0107</v>
-      </c>
+      <c r="D8" t="n">
+        <v>8.780100000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.595000000000001</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>21.3883</v>
+      </c>
       <c r="J8" t="n">
+        <v>12.4421</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.0107</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>10.8482</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>27.065</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8.207100000000001</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>22.7688</v>
+      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>28.1388</v>
       </c>
-      <c r="K8" t="n">
+      <c r="U8" t="n">
+        <v>18.7438</v>
+      </c>
+      <c r="V8" t="n">
         <v>11.1233</v>
       </c>
-      <c r="L8" t="n">
+      <c r="W8" t="n">
+        <v>17.0289</v>
+      </c>
+      <c r="X8" t="n">
         <v>22.4139</v>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="Y8" t="n">
+        <v>7.7448</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="n">
         <v>21.9915</v>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="n">
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="n">
+        <v>5.1212</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>25.9371</v>
+      </c>
+      <c r="AE8" t="n">
         <v>16.6221</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>7.682700000000001</v>
       </c>
     </row>
     <row r="9">
@@ -768,35 +1144,79 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
+        <v>8.3444</v>
+      </c>
+      <c r="C9" t="n">
         <v>23.9256</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>8.0526</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>5.7452</v>
-      </c>
+      <c r="E9" t="n">
+        <v>9.073399999999999</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>16.357</v>
+      </c>
       <c r="J9" t="n">
+        <v>15.8849</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.7452</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>8.6037</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>23.9259</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6.9617</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>13.8879</v>
+      </c>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
         <v>27.568</v>
       </c>
-      <c r="K9" t="n">
+      <c r="U9" t="n">
+        <v>18.9054</v>
+      </c>
+      <c r="V9" t="n">
         <v>10.1659</v>
       </c>
-      <c r="L9" t="n">
+      <c r="W9" t="n">
+        <v>20.388</v>
+      </c>
+      <c r="X9" t="n">
         <v>20.3065</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="Y9" t="n">
+        <v>6.739100000000001</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="n">
         <v>22.5861</v>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>4.6203</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>24.4155</v>
+      </c>
+      <c r="AE9" t="n">
         <v>18.5209</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>7.0372</v>
       </c>
     </row>
     <row r="10">
@@ -804,35 +1224,79 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
+        <v>12.9272</v>
+      </c>
+      <c r="C10" t="n">
         <v>11.7999</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>3.1882</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>2.8416</v>
-      </c>
+      <c r="E10" t="n">
+        <v>3.408</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>7.7303</v>
+      </c>
       <c r="J10" t="n">
+        <v>5.6309</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.8416</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>3.594</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>11.0227</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.0628</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9.585599999999999</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
         <v>13.3647</v>
       </c>
-      <c r="K10" t="n">
+      <c r="U10" t="n">
+        <v>6.489700000000001</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.6992</v>
       </c>
-      <c r="L10" t="n">
+      <c r="W10" t="n">
+        <v>12.443</v>
+      </c>
+      <c r="X10" t="n">
         <v>10.4976</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="Y10" t="n">
+        <v>2.9423</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
         <v>10.4856</v>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="n">
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="n">
+        <v>1.4706</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>12.104</v>
+      </c>
+      <c r="AE10" t="n">
         <v>7.1294</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>3.8999</v>
       </c>
     </row>
     <row r="11">
@@ -840,710 +1304,1210 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
+        <v>25.689</v>
+      </c>
+      <c r="C11" t="n">
         <v>26.9335</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>8.520300000000001</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>10.4066</v>
-      </c>
+      <c r="E11" t="n">
+        <v>5.0708</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>19.833</v>
+      </c>
       <c r="J11" t="n">
+        <v>8.246500000000001</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10.4066</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1.9834</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>28.7891</v>
+      </c>
+      <c r="P11" t="n">
+        <v>7.1529</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>21.4223</v>
+      </c>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
         <v>28.5772</v>
       </c>
-      <c r="K11" t="n">
+      <c r="U11" t="n">
+        <v>15.546</v>
+      </c>
+      <c r="V11" t="n">
         <v>8.859999999999999</v>
       </c>
-      <c r="L11" t="n">
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="n">
         <v>24.8654</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="Y11" t="n">
+        <v>7.1417</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="n">
         <v>25.4866</v>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="n">
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>6.5259</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>26.7887</v>
+      </c>
+      <c r="AE11" t="n">
         <v>18.0283</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>6.7576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
         <v>12.0161</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>8.1622</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>10.8236</v>
-      </c>
+      <c r="E12" t="n">
+        <v>3.5705</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>12.8062</v>
+      </c>
       <c r="J12" t="n">
+        <v>9.151899999999999</v>
+      </c>
+      <c r="K12" t="n">
+        <v>10.8236</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>10.648</v>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
         <v>10.4945</v>
       </c>
-      <c r="K12" t="n">
+      <c r="U12" t="n">
+        <v>10.8058</v>
+      </c>
+      <c r="V12" t="n">
         <v>9.0899</v>
       </c>
-      <c r="L12" t="n">
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="n">
         <v>10.7245</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
         <v>11.1187</v>
       </c>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="n">
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>2.9957</v>
+      </c>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="n">
         <v>8.8651</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
         <v>20.3644</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>19.9347</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>19.6076</v>
-      </c>
+      <c r="E13" t="n">
+        <v>3.3015</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>24.176</v>
+      </c>
       <c r="J13" t="n">
+        <v>20.3695</v>
+      </c>
+      <c r="K13" t="n">
+        <v>19.6076</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
         <v>15.2589</v>
       </c>
-      <c r="K13" t="n">
+      <c r="U13" t="n">
+        <v>20.3084</v>
+      </c>
+      <c r="V13" t="n">
         <v>15.1199</v>
       </c>
-      <c r="L13" t="n">
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="n">
         <v>19.4212</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
         <v>20.0545</v>
       </c>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="n">
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="n">
+        <v>5.710999999999999</v>
+      </c>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="n">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B14" t="n">
-        <v>18.7593</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
+        <v>18.0834</v>
+      </c>
+      <c r="D14" t="n">
         <v>15.0168</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>18.3137</v>
-      </c>
+      <c r="E14" t="n">
+        <v>4.1612</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>18.9965</v>
+      </c>
       <c r="J14" t="n">
-        <v>20.6058</v>
+        <v>17.1095</v>
       </c>
       <c r="K14" t="n">
-        <v>12.0427</v>
-      </c>
-      <c r="L14" t="n">
-        <v>17.689</v>
-      </c>
+        <v>17.8348</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
-        <v>16.5432</v>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
-      <c r="P14" t="n">
-        <v>13.4074</v>
-      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>6.6352</v>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>19.8429</v>
+      </c>
+      <c r="U14" t="n">
+        <v>7.2698</v>
+      </c>
+      <c r="V14" t="n">
+        <v>11.7226</v>
+      </c>
+      <c r="W14" t="n">
+        <v>16.6956</v>
+      </c>
+      <c r="X14" t="n">
+        <v>17.008</v>
+      </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
+        <v>15.9207</v>
+      </c>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="n">
+        <v>4.8062</v>
+      </c>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="n">
+        <v>12.8307</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
         <v>21.0908</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>22.0861</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>20.4058</v>
-      </c>
+      <c r="E15" t="n">
+        <v>4.4385</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>25.9011</v>
+      </c>
       <c r="J15" t="n">
+        <v>15.6717</v>
+      </c>
+      <c r="K15" t="n">
+        <v>20.4058</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
         <v>15.8022</v>
       </c>
-      <c r="K15" t="n">
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="n">
         <v>2.185</v>
       </c>
-      <c r="L15" t="n">
+      <c r="W15" t="n">
+        <v>18.1322</v>
+      </c>
+      <c r="X15" t="n">
         <v>22.3076</v>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
         <v>10.0064</v>
       </c>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="n">
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="n">
+        <v>4.709</v>
+      </c>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="n">
         <v>14.9272</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
         <v>12.229</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>6.3308</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>9.733000000000001</v>
+      </c>
+      <c r="G16" t="n">
         <v>5.4993</v>
       </c>
-      <c r="E16" t="n">
+      <c r="H16" t="n">
         <v>7.3902</v>
       </c>
-      <c r="F16" t="n">
+      <c r="I16" t="n">
+        <v>8.5899</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.9049</v>
+      </c>
+      <c r="K16" t="n">
         <v>7.228</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>9.6059</v>
       </c>
-      <c r="I16" t="n">
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>7.896599999999999</v>
+      </c>
+      <c r="R16" t="n">
         <v>6.887</v>
       </c>
-      <c r="J16" t="n">
+      <c r="S16" t="n">
+        <v>12.154</v>
+      </c>
+      <c r="T16" t="n">
         <v>11.2458</v>
       </c>
-      <c r="K16" t="n">
+      <c r="U16" t="n">
+        <v>7.8348</v>
+      </c>
+      <c r="V16" t="n">
         <v>6.4224</v>
       </c>
-      <c r="L16" t="n">
+      <c r="W16" t="n">
+        <v>9.3406</v>
+      </c>
+      <c r="X16" t="n">
         <v>10.3448</v>
       </c>
-      <c r="M16" t="n">
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="n">
         <v>8.2944</v>
       </c>
-      <c r="N16" t="n">
+      <c r="AA16" t="n">
         <v>5.9344</v>
       </c>
-      <c r="O16" t="n">
+      <c r="AB16" t="n">
         <v>8.786899999999999</v>
       </c>
-      <c r="P16" t="n">
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="n">
         <v>6.879799999999999</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
         <v>37.1104</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>8.2387</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>35.9969</v>
+      </c>
+      <c r="G17" t="n">
         <v>13.2529</v>
       </c>
-      <c r="E17" t="n">
+      <c r="H17" t="n">
         <v>13.285</v>
       </c>
-      <c r="F17" t="n">
+      <c r="I17" t="n">
+        <v>26.5489</v>
+      </c>
+      <c r="J17" t="n">
+        <v>26.1132</v>
+      </c>
+      <c r="K17" t="n">
         <v>8.1616</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>32.7489</v>
       </c>
-      <c r="I17" t="n">
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>31.1939</v>
+      </c>
+      <c r="R17" t="n">
         <v>14.3257</v>
       </c>
-      <c r="J17" t="n">
+      <c r="S17" t="n">
+        <v>40.8049</v>
+      </c>
+      <c r="T17" t="n">
         <v>39.0692</v>
       </c>
-      <c r="K17" t="n">
+      <c r="U17" t="n">
+        <v>18.5134</v>
+      </c>
+      <c r="V17" t="n">
         <v>21.2791</v>
       </c>
-      <c r="L17" t="n">
+      <c r="W17" t="n">
+        <v>26.9922</v>
+      </c>
+      <c r="X17" t="n">
         <v>32.1399</v>
       </c>
-      <c r="M17" t="n">
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="n">
         <v>29.0629</v>
       </c>
-      <c r="N17" t="n">
+      <c r="AA17" t="n">
         <v>20.8821</v>
       </c>
-      <c r="O17" t="n">
+      <c r="AB17" t="n">
         <v>20.3011</v>
       </c>
-      <c r="P17" t="n">
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="n">
         <v>8.935700000000001</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
         <v>23.0774</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>8.560700000000001</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>19.3143</v>
+      </c>
+      <c r="G18" t="n">
         <v>7.4405</v>
       </c>
-      <c r="E18" t="n">
+      <c r="H18" t="n">
         <v>7.492</v>
       </c>
-      <c r="F18" t="n">
+      <c r="I18" t="n">
+        <v>14.9739</v>
+      </c>
+      <c r="J18" t="n">
+        <v>17.9161</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.389</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>22.525</v>
       </c>
-      <c r="I18" t="n">
-        <v>7.700500000000001</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>18.0157</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7.7005</v>
+      </c>
+      <c r="S18" t="n">
+        <v>26.5795</v>
+      </c>
+      <c r="T18" t="n">
         <v>22.5286</v>
       </c>
-      <c r="K18" t="n">
+      <c r="U18" t="n">
+        <v>5.4763</v>
+      </c>
+      <c r="V18" t="n">
         <v>10.0589</v>
       </c>
-      <c r="L18" t="n">
+      <c r="W18" t="n">
+        <v>17.0134</v>
+      </c>
+      <c r="X18" t="n">
         <v>23.2407</v>
       </c>
-      <c r="M18" t="n">
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="n">
         <v>22.3785</v>
       </c>
-      <c r="N18" t="n">
+      <c r="AA18" t="n">
         <v>20.8118</v>
       </c>
-      <c r="O18" t="n">
+      <c r="AB18" t="n">
         <v>19.9137</v>
       </c>
-      <c r="P18" t="n">
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="n">
         <v>8.4961</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
         <v>22.704</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>3.0751</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>23.9643</v>
+      </c>
+      <c r="G19" t="n">
         <v>5.2283</v>
       </c>
-      <c r="E19" t="n">
+      <c r="H19" t="n">
         <v>4.8921</v>
       </c>
-      <c r="F19" t="n">
+      <c r="I19" t="n">
+        <v>15.4917</v>
+      </c>
+      <c r="J19" t="n">
+        <v>19.8344</v>
+      </c>
+      <c r="K19" t="n">
         <v>5.2489</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>21.4811</v>
       </c>
-      <c r="I19" t="n">
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>8.245800000000001</v>
+      </c>
+      <c r="R19" t="n">
         <v>5.8335</v>
       </c>
-      <c r="J19" t="n">
+      <c r="S19" t="n">
+        <v>25.7139</v>
+      </c>
+      <c r="T19" t="n">
         <v>25.547</v>
       </c>
-      <c r="K19" t="n">
+      <c r="U19" t="n">
+        <v>5.4839</v>
+      </c>
+      <c r="V19" t="n">
         <v>6.918</v>
       </c>
-      <c r="L19" t="n">
+      <c r="W19" t="n">
+        <v>12.7468</v>
+      </c>
+      <c r="X19" t="n">
         <v>21.009</v>
       </c>
-      <c r="M19" t="n">
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="n">
         <v>21.1576</v>
       </c>
-      <c r="N19" t="n">
+      <c r="AA19" t="n">
         <v>11.2045</v>
       </c>
-      <c r="O19" t="n">
+      <c r="AB19" t="n">
         <v>19.4048</v>
       </c>
-      <c r="P19" t="n">
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="n">
         <v>7.0888</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
         <v>4.3345</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>23.4493</v>
+      </c>
+      <c r="G20" t="n">
         <v>6.4572</v>
       </c>
-      <c r="E20" t="n">
+      <c r="H20" t="n">
         <v>6.9512</v>
       </c>
-      <c r="F20" t="n">
+      <c r="I20" t="n">
+        <v>13.3691</v>
+      </c>
+      <c r="J20" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.5475</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>23.0047</v>
       </c>
-      <c r="I20" t="n">
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
         <v>7.9673</v>
       </c>
-      <c r="J20" t="n">
+      <c r="S20" t="n">
+        <v>25.3743</v>
+      </c>
+      <c r="T20" t="n">
         <v>25.9093</v>
       </c>
-      <c r="K20" t="n">
+      <c r="U20" t="n">
+        <v>10.9606</v>
+      </c>
+      <c r="V20" t="n">
         <v>10.6473</v>
       </c>
-      <c r="L20" t="n">
+      <c r="W20" t="n">
+        <v>15.2088</v>
+      </c>
+      <c r="X20" t="n">
         <v>23.0564</v>
       </c>
-      <c r="M20" t="n">
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="n">
         <v>15.376</v>
       </c>
-      <c r="N20" t="n">
+      <c r="AA20" t="n">
         <v>20.1827</v>
       </c>
-      <c r="O20" t="n">
+      <c r="AB20" t="n">
         <v>4.3767</v>
       </c>
-      <c r="P20" t="n">
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="n">
         <v>12.9299</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
         <v>4.8105</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>12.4722</v>
+      </c>
+      <c r="G21" t="n">
         <v>2.8952</v>
       </c>
-      <c r="E21" t="n">
+      <c r="H21" t="n">
         <v>3.1507</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
+        <v>6.2394</v>
+      </c>
+      <c r="J21" t="n">
+        <v>9.7682</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>11.5273</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>10.6992</v>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>14.1636</v>
+      </c>
+      <c r="T21" t="n">
         <v>13.0605</v>
       </c>
-      <c r="K21" t="n">
+      <c r="U21" t="n">
+        <v>5.9694</v>
+      </c>
+      <c r="V21" t="n">
         <v>6.4284</v>
       </c>
-      <c r="L21" t="n">
+      <c r="W21" t="n">
+        <v>8.6668</v>
+      </c>
+      <c r="X21" t="n">
         <v>10.717</v>
       </c>
-      <c r="M21" t="n">
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="n">
         <v>2.6217</v>
       </c>
-      <c r="N21" t="n">
+      <c r="AA21" t="n">
         <v>9.5982</v>
       </c>
-      <c r="O21" t="n">
+      <c r="AB21" t="n">
         <v>9.5617</v>
       </c>
-      <c r="P21" t="n">
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="n">
         <v>4.9793</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
         <v>12.6721</v>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>23.1386</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>17.1443</v>
+      </c>
+      <c r="J22" t="n">
+        <v>16.0508</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>24.1849</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>26.8197</v>
+      </c>
+      <c r="T22" t="n">
         <v>22.2614</v>
       </c>
-      <c r="K22" t="n">
+      <c r="U22" t="n">
+        <v>13.971</v>
+      </c>
+      <c r="V22" t="n">
         <v>14.3115</v>
       </c>
-      <c r="L22" t="n">
+      <c r="W22" t="n">
+        <v>16.7417</v>
+      </c>
+      <c r="X22" t="n">
         <v>22.76</v>
       </c>
-      <c r="M22" t="n">
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="n">
         <v>25.1461</v>
       </c>
-      <c r="N22" t="n">
+      <c r="AA22" t="n">
         <v>10.8818</v>
       </c>
-      <c r="O22" t="n">
+      <c r="AB22" t="n">
         <v>20.0837</v>
       </c>
-      <c r="P22" t="n">
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="n">
         <v>14.7285</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
         <v>9.7691</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>26.3816</v>
+      </c>
+      <c r="G23" t="n">
         <v>7.2686</v>
       </c>
-      <c r="E23" t="n">
+      <c r="H23" t="n">
         <v>8.1953</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
+        <v>13.0754</v>
+      </c>
+      <c r="J23" t="n">
+        <v>17.8118</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>24.8848</v>
       </c>
-      <c r="I23" t="n">
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
         <v>1.8911</v>
       </c>
-      <c r="J23" t="n">
+      <c r="S23" t="n">
+        <v>28.225</v>
+      </c>
+      <c r="T23" t="n">
         <v>20.947</v>
       </c>
-      <c r="K23" t="n">
+      <c r="U23" t="n">
+        <v>8.7727</v>
+      </c>
+      <c r="V23" t="n">
         <v>11.8479</v>
       </c>
-      <c r="L23" t="n">
+      <c r="W23" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="X23" t="n">
         <v>23.9162</v>
       </c>
-      <c r="M23" t="n">
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="n">
         <v>28.6007</v>
       </c>
-      <c r="N23" t="n">
+      <c r="AA23" t="n">
         <v>24.997</v>
       </c>
-      <c r="O23" t="n">
+      <c r="AB23" t="n">
         <v>22.1636</v>
       </c>
-      <c r="P23" t="n">
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="n">
         <v>11.9324</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="n">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
         <v>4.763</v>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>11.6354</v>
+      </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>9.4087</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9.526399999999999</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>10.615</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>12.8976</v>
+      </c>
+      <c r="T24" t="n">
         <v>10.9614</v>
       </c>
-      <c r="K24" t="n">
-        <v>6.542199999999999</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="U24" t="n">
+        <v>6.1428</v>
+      </c>
+      <c r="V24" t="n">
+        <v>6.5422</v>
+      </c>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="n">
         <v>11.986</v>
       </c>
-      <c r="M24" t="n">
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="n">
         <v>12.133</v>
       </c>
-      <c r="N24" t="n">
+      <c r="AA24" t="n">
         <v>9.3207</v>
       </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="n">
-        <v>6.4252</v>
-      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="n">
+        <v>6.425199999999999</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="n">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
         <v>1.1561</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>22.368</v>
+      </c>
+      <c r="G25" t="n">
         <v>6.5015</v>
       </c>
-      <c r="E25" t="n">
+      <c r="H25" t="n">
         <v>5.213</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
+        <v>12.0977</v>
+      </c>
+      <c r="J25" t="n">
+        <v>9.6159</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>24.4209</v>
       </c>
-      <c r="I25" t="n">
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
         <v>1.9623</v>
       </c>
-      <c r="J25" t="n">
+      <c r="S25" t="n">
+        <v>28.8245</v>
+      </c>
+      <c r="T25" t="n">
         <v>26.3466</v>
       </c>
-      <c r="K25" t="n">
+      <c r="U25" t="n">
+        <v>9.7803</v>
+      </c>
+      <c r="V25" t="n">
         <v>9.9108</v>
       </c>
-      <c r="L25" t="n">
+      <c r="W25" t="n">
+        <v>7.793</v>
+      </c>
+      <c r="X25" t="n">
         <v>25.8005</v>
       </c>
-      <c r="M25" t="n">
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="n">
         <v>26.2683</v>
       </c>
-      <c r="N25" t="n">
+      <c r="AA25" t="n">
         <v>26.4145</v>
       </c>
-      <c r="O25" t="n">
+      <c r="AB25" t="n">
         <v>22.0159</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="n">
         <v>16.0818</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="n">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
         <v>6.8694</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>29.6021</v>
+      </c>
+      <c r="G26" t="n">
         <v>6.5432</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>3.7729</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
+        <v>15.4893</v>
+      </c>
+      <c r="J26" t="n">
+        <v>22.2155</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>26.271</v>
       </c>
-      <c r="I26" t="n">
-        <v>4.691</v>
-      </c>
-      <c r="J26" t="n">
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>4.691000000000001</v>
+      </c>
+      <c r="S26" t="n">
+        <v>32.0404</v>
+      </c>
+      <c r="T26" t="n">
         <v>25.4966</v>
       </c>
-      <c r="K26" t="n">
+      <c r="U26" t="n">
+        <v>8.6333</v>
+      </c>
+      <c r="V26" t="n">
         <v>16.601</v>
       </c>
-      <c r="L26" t="n">
+      <c r="W26" t="n">
+        <v>11.6509</v>
+      </c>
+      <c r="X26" t="n">
         <v>26.6908</v>
       </c>
-      <c r="M26" t="n">
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="n">
         <v>27.8216</v>
       </c>
-      <c r="N26" t="n">
+      <c r="AA26" t="n">
         <v>23.8847</v>
       </c>
-      <c r="O26" t="n">
+      <c r="AB26" t="n">
         <v>25.3634</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="n">
         <v>14.6769</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="n">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
         <v>3.3326</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>12.5672</v>
+      </c>
+      <c r="G27" t="n">
         <v>2.7973</v>
       </c>
-      <c r="E27" t="n">
+      <c r="H27" t="n">
         <v>3.1751</v>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
+        <v>9.937900000000001</v>
+      </c>
+      <c r="J27" t="n">
+        <v>10.0048</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>10.7178</v>
       </c>
-      <c r="I27" t="n">
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="n">
         <v>3.422</v>
       </c>
-      <c r="J27" t="n">
+      <c r="S27" t="n">
+        <v>13.0831</v>
+      </c>
+      <c r="T27" t="n">
         <v>12.8784</v>
       </c>
-      <c r="K27" t="n">
+      <c r="U27" t="n">
+        <v>3.5077</v>
+      </c>
+      <c r="V27" t="n">
         <v>8.0265</v>
       </c>
-      <c r="L27" t="n">
+      <c r="W27" t="n">
+        <v>4.4789</v>
+      </c>
+      <c r="X27" t="n">
         <v>11.632</v>
       </c>
-      <c r="M27" t="n">
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="n">
         <v>9.604700000000001</v>
       </c>
-      <c r="N27" t="n">
+      <c r="AA27" t="n">
         <v>11.2739</v>
       </c>
-      <c r="O27" t="n">
+      <c r="AB27" t="n">
         <v>10.9418</v>
       </c>
-      <c r="P27" t="n">
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="n">
         <v>6.0849</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1551,129 +2515,177 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="n">
-        <v>15.5531</v>
-      </c>
-      <c r="E28" t="n">
-        <v>17.8284</v>
-      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
+        <v>15.5531</v>
+      </c>
+      <c r="H28" t="n">
+        <v>17.8284</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
         <v>11.9906</v>
       </c>
-      <c r="H28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>10.7229</v>
       </c>
-      <c r="I28" t="n">
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="n">
         <v>12.3496</v>
       </c>
-      <c r="J28" t="n">
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
         <v>18.5249</v>
       </c>
-      <c r="K28" t="n">
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="n">
         <v>14.4913</v>
       </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="n">
         <v>17.6814</v>
       </c>
-      <c r="N28" t="n">
+      <c r="AA28" t="n">
         <v>17.2536</v>
       </c>
-      <c r="O28" t="n">
+      <c r="AB28" t="n">
         <v>17.1405</v>
       </c>
-      <c r="P28" t="n">
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="n">
         <v>15.0971</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
         <v>10.6844</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="n">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
         <v>8.0191</v>
       </c>
-      <c r="E29" t="n">
+      <c r="H29" t="n">
         <v>10.8812</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
         <v>10.0248</v>
       </c>
-      <c r="G29" t="n">
+      <c r="L29" t="n">
         <v>9.4435</v>
       </c>
-      <c r="H29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>10.6095</v>
       </c>
-      <c r="I29" t="n">
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="n">
         <v>8.6068</v>
       </c>
-      <c r="J29" t="n">
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="n">
         <v>12.8234</v>
       </c>
-      <c r="K29" t="n">
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="n">
         <v>10.531</v>
       </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="n">
         <v>11.5732</v>
       </c>
-      <c r="N29" t="n">
+      <c r="AA29" t="n">
         <v>10.3185</v>
       </c>
-      <c r="O29" t="n">
+      <c r="AB29" t="n">
         <v>8.2394</v>
       </c>
-      <c r="P29" t="n">
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="n">
         <v>10.7249</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
         <v>10.0469</v>
       </c>
-      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
-        <v>15.3599</v>
-      </c>
-      <c r="F30" t="n">
-        <v>15.3185</v>
-      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
+        <v>15.3599</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>15.3185</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>12.7809</v>
       </c>
-      <c r="I30" t="n">
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="n">
         <v>14.5527</v>
       </c>
-      <c r="J30" t="n">
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="n">
         <v>15.2182</v>
       </c>
-      <c r="K30" t="n">
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="n">
         <v>10.2944</v>
       </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="n">
         <v>7.5683</v>
       </c>
-      <c r="N30" t="n">
+      <c r="AA30" t="n">
         <v>13.9973</v>
       </c>
-      <c r="O30" t="n">
+      <c r="AB30" t="n">
         <v>15.4696</v>
       </c>
-      <c r="P30" t="n">
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="n">
         <v>13.7678</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1682,38 +2694,54 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
         <v>13.2357</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="n">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
         <v>7.2946</v>
       </c>
-      <c r="H31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>9.0939</v>
       </c>
-      <c r="I31" t="n">
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="n">
         <v>8.3794</v>
       </c>
-      <c r="J31" t="n">
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="n">
         <v>12.5044</v>
       </c>
-      <c r="K31" t="n">
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="n">
         <v>11.1479</v>
       </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="n">
         <v>12.7729</v>
       </c>
-      <c r="N31" t="n">
+      <c r="AA31" t="n">
         <v>10.7903</v>
       </c>
-      <c r="O31" t="n">
+      <c r="AB31" t="n">
         <v>12.8923</v>
       </c>
-      <c r="P31" t="n">
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="n">
         <v>11.561</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
